--- a/tests/testthat/testdata/test01.xlsx
+++ b/tests/testthat/testdata/test01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalar\RstudioProjects\ProtStatsWF\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95655AD-1A36-4FC8-9DA4-01DAC9AD786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDEC1DF-15A1-4B29-B0F1-C6A8F1191209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="-19125" windowWidth="23745" windowHeight="17970" xr2:uid="{B9B5A511-98A5-4E25-9B00-354933F66490}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
